--- a/data/created/Bondues_noeud_selected.xlsx
+++ b/data/created/Bondues_noeud_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,22 +462,2794 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B2" t="n">
+        <v>52033</v>
+      </c>
+      <c r="C2" t="n">
+        <v>154555</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>62592</v>
+      </c>
+      <c r="F2" t="n">
+        <v>62593</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B3" t="n">
+        <v>51873</v>
+      </c>
+      <c r="C3" t="n">
+        <v>133882</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100819</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100814</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B4" t="n">
+        <v>51388</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2040442</v>
+      </c>
+      <c r="D4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2040443</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2040441</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B5" t="n">
+        <v>48631</v>
+      </c>
+      <c r="C5" t="n">
+        <v>133699</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96069</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96070</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B6" t="n">
+        <v>48668</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2015779</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2015720</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2015734</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>1497</v>
+      </c>
+      <c r="B7" t="n">
+        <v>73565</v>
+      </c>
+      <c r="C7" t="n">
+        <v>154723</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>73676</v>
+      </c>
+      <c r="F7" t="n">
+        <v>73677</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>1549</v>
+      </c>
+      <c r="B8" t="n">
+        <v>73753</v>
+      </c>
+      <c r="C8" t="n">
+        <v>154559</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" t="n">
+        <v>62645</v>
+      </c>
+      <c r="F8" t="n">
+        <v>62647</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>1562</v>
+      </c>
+      <c r="B9" t="n">
+        <v>73789</v>
+      </c>
+      <c r="C9" t="n">
+        <v>133928</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100840</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100841</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>1732</v>
+      </c>
+      <c r="B10" t="n">
+        <v>71027</v>
+      </c>
+      <c r="C10" t="n">
+        <v>133704</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>96022</v>
+      </c>
+      <c r="F10" t="n">
+        <v>96021</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B11" t="n">
+        <v>72026</v>
+      </c>
+      <c r="C11" t="n">
+        <v>133566</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>96506</v>
+      </c>
+      <c r="F11" t="n">
+        <v>96507</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>2220</v>
+      </c>
+      <c r="B12" t="n">
+        <v>72663</v>
+      </c>
+      <c r="C12" t="n">
+        <v>154634</v>
+      </c>
+      <c r="D12" t="n">
+        <v>150</v>
+      </c>
+      <c r="E12" t="n">
+        <v>63115</v>
+      </c>
+      <c r="F12" t="n">
+        <v>63113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>2382</v>
+      </c>
+      <c r="B13" t="n">
+        <v>94771</v>
+      </c>
+      <c r="C13" t="n">
+        <v>154542</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60</v>
+      </c>
+      <c r="E13" t="n">
+        <v>62665</v>
+      </c>
+      <c r="F13" t="n">
+        <v>62664</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>2415</v>
+      </c>
+      <c r="B14" t="n">
+        <v>94885</v>
+      </c>
+      <c r="C14" t="n">
+        <v>133592</v>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>96144</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>2442</v>
+      </c>
+      <c r="B15" t="n">
+        <v>94952</v>
+      </c>
+      <c r="C15" t="n">
+        <v>154641</v>
+      </c>
+      <c r="D15" t="n">
+        <v>60</v>
+      </c>
+      <c r="E15" t="n">
+        <v>62870</v>
+      </c>
+      <c r="F15" t="n">
+        <v>62873</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>3386</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90896</v>
+      </c>
+      <c r="C16" t="n">
+        <v>154526</v>
+      </c>
+      <c r="D16" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" t="n">
+        <v>59437</v>
+      </c>
+      <c r="F16" t="n">
+        <v>59433</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>3884</v>
+      </c>
+      <c r="B17" t="n">
+        <v>88986</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1601581</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1601666</v>
+      </c>
+      <c r="F17" t="n">
+        <v>62629</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>4527</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2391</v>
+      </c>
+      <c r="C18" t="n">
+        <v>133584</v>
+      </c>
+      <c r="D18" t="n">
+        <v>150</v>
+      </c>
+      <c r="E18" t="n">
+        <v>96331</v>
+      </c>
+      <c r="F18" t="n">
+        <v>96324</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>4828</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3207</v>
+      </c>
+      <c r="C19" t="n">
+        <v>154471</v>
+      </c>
+      <c r="D19" t="n">
+        <v>60</v>
+      </c>
+      <c r="E19" t="n">
+        <v>73533</v>
+      </c>
+      <c r="F19" t="n">
+        <v>73532</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>5062</v>
+      </c>
+      <c r="B20" t="n">
+        <v>604</v>
+      </c>
+      <c r="C20" t="n">
+        <v>133755</v>
+      </c>
+      <c r="D20" t="n">
+        <v>60</v>
+      </c>
+      <c r="E20" t="n">
+        <v>99409</v>
+      </c>
+      <c r="F20" t="n">
+        <v>99410</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>5820</v>
+      </c>
+      <c r="B21" t="n">
+        <v>55348</v>
+      </c>
+      <c r="C21" t="n">
+        <v>133595</v>
+      </c>
+      <c r="D21" t="n">
+        <v>60</v>
+      </c>
+      <c r="E21" t="n">
+        <v>96058</v>
+      </c>
+      <c r="F21" t="n">
+        <v>96064</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>5829</v>
+      </c>
+      <c r="B22" t="n">
+        <v>55368</v>
+      </c>
+      <c r="C22" t="n">
+        <v>133569</v>
+      </c>
+      <c r="D22" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96365</v>
+      </c>
+      <c r="F22" t="n">
+        <v>96366</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>6378</v>
+      </c>
+      <c r="B23" t="n">
+        <v>53446</v>
+      </c>
+      <c r="C23" t="n">
+        <v>154639</v>
+      </c>
+      <c r="D23" t="n">
+        <v>60</v>
+      </c>
+      <c r="E23" t="n">
+        <v>62868</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1603039</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>6801</v>
+      </c>
+      <c r="B24" t="n">
+        <v>113170</v>
+      </c>
+      <c r="C24" t="n">
+        <v>133763</v>
+      </c>
+      <c r="D24" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" t="n">
+        <v>99313</v>
+      </c>
+      <c r="F24" t="n">
+        <v>99412</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>7156</v>
+      </c>
+      <c r="B25" t="n">
+        <v>110757</v>
+      </c>
+      <c r="C25" t="n">
+        <v>139674</v>
+      </c>
+      <c r="D25" t="n">
+        <v>60</v>
+      </c>
+      <c r="E25" t="n">
+        <v>96494</v>
+      </c>
+      <c r="F25" t="n">
+        <v>96495</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>7164</v>
+      </c>
+      <c r="B26" t="n">
+        <v>110782</v>
+      </c>
+      <c r="C26" t="n">
+        <v>154658</v>
+      </c>
+      <c r="D26" t="n">
+        <v>60</v>
+      </c>
+      <c r="E26" t="n">
+        <v>63075</v>
+      </c>
+      <c r="F26" t="n">
+        <v>63086</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>7209</v>
+      </c>
+      <c r="B27" t="n">
+        <v>110889</v>
+      </c>
+      <c r="C27" t="n">
+        <v>133579</v>
+      </c>
+      <c r="D27" t="n">
+        <v>150</v>
+      </c>
+      <c r="E27" t="n">
+        <v>96383</v>
+      </c>
+      <c r="F27" t="n">
+        <v>96381</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>7349</v>
+      </c>
+      <c r="B28" t="n">
+        <v>111397</v>
+      </c>
+      <c r="C28" t="n">
+        <v>154522</v>
+      </c>
+      <c r="D28" t="n">
+        <v>60</v>
+      </c>
+      <c r="E28" t="n">
+        <v>62770</v>
+      </c>
+      <c r="F28" t="n">
+        <v>62755</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>7489</v>
+      </c>
+      <c r="B29" t="n">
+        <v>111820</v>
+      </c>
+      <c r="C29" t="n">
+        <v>154713</v>
+      </c>
+      <c r="D29" t="n">
+        <v>150</v>
+      </c>
+      <c r="E29" t="n">
+        <v>73730</v>
+      </c>
+      <c r="F29" t="n">
+        <v>73728</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>7647</v>
+      </c>
+      <c r="B30" t="n">
+        <v>112285</v>
+      </c>
+      <c r="C30" t="n">
+        <v>154764</v>
+      </c>
+      <c r="D30" t="n">
+        <v>60</v>
+      </c>
+      <c r="E30" t="n">
+        <v>63168</v>
+      </c>
+      <c r="F30" t="n">
+        <v>63166</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>7680</v>
+      </c>
+      <c r="B31" t="n">
+        <v>112385</v>
+      </c>
+      <c r="C31" t="n">
+        <v>154601</v>
+      </c>
+      <c r="D31" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" t="n">
+        <v>62991</v>
+      </c>
+      <c r="F31" t="n">
+        <v>62937</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>7916</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5457</v>
+      </c>
+      <c r="C32" t="n">
+        <v>154578</v>
+      </c>
+      <c r="D32" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" t="n">
+        <v>62711</v>
+      </c>
+      <c r="F32" t="n">
+        <v>62722</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>7972</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5618</v>
+      </c>
+      <c r="C33" t="n">
+        <v>133836</v>
+      </c>
+      <c r="D33" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" t="n">
+        <v>99179</v>
+      </c>
+      <c r="F33" t="n">
+        <v>99177</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>8016</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9161</v>
+      </c>
+      <c r="C34" t="n">
+        <v>133768</v>
+      </c>
+      <c r="D34" t="n">
+        <v>40</v>
+      </c>
+      <c r="E34" t="n">
+        <v>99304</v>
+      </c>
+      <c r="F34" t="n">
+        <v>99306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>8248</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5820</v>
+      </c>
+      <c r="C35" t="n">
+        <v>154560</v>
+      </c>
+      <c r="D35" t="n">
+        <v>60</v>
+      </c>
+      <c r="E35" t="n">
+        <v>62857</v>
+      </c>
+      <c r="F35" t="n">
+        <v>62860</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>9239</v>
+      </c>
+      <c r="B36" t="n">
+        <v>13855</v>
+      </c>
+      <c r="C36" t="n">
+        <v>154447</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
+        <v>59396</v>
+      </c>
+      <c r="F36" t="n">
+        <v>59397</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>9300</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18049</v>
+      </c>
+      <c r="C37" t="n">
+        <v>154965</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>58503</v>
+      </c>
+      <c r="F37" t="n">
+        <v>58501</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>9333</v>
+      </c>
+      <c r="B38" t="n">
+        <v>18168</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1995179</v>
+      </c>
+      <c r="D38" t="n">
+        <v>60</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1995180</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1995102</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>9401</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6750</v>
+      </c>
+      <c r="C39" t="n">
+        <v>133577</v>
+      </c>
+      <c r="D39" t="n">
+        <v>100</v>
+      </c>
+      <c r="E39" t="n">
+        <v>96355</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96354</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>9522</v>
+      </c>
+      <c r="B40" t="n">
+        <v>14069</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154541</v>
+      </c>
+      <c r="D40" t="n">
+        <v>60</v>
+      </c>
+      <c r="E40" t="n">
+        <v>62814</v>
+      </c>
+      <c r="F40" t="n">
+        <v>62813</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>9685</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6936</v>
+      </c>
+      <c r="C41" t="n">
+        <v>133606</v>
+      </c>
+      <c r="D41" t="n">
+        <v>100</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96017</v>
+      </c>
+      <c r="F41" t="n">
+        <v>96172</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>9701</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6987</v>
+      </c>
+      <c r="C42" t="n">
+        <v>154425</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>62540</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1659398</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>11167</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4315</v>
+      </c>
+      <c r="C43" t="n">
+        <v>139805</v>
+      </c>
+      <c r="D43" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" t="n">
+        <v>59274</v>
+      </c>
+      <c r="F43" t="n">
+        <v>59272</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>11411</v>
+      </c>
+      <c r="B44" t="n">
+        <v>15597</v>
+      </c>
+      <c r="C44" t="n">
+        <v>154756</v>
+      </c>
+      <c r="D44" t="n">
+        <v>100</v>
+      </c>
+      <c r="E44" t="n">
+        <v>63201</v>
+      </c>
+      <c r="F44" t="n">
+        <v>63202</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>11424</v>
+      </c>
+      <c r="B45" t="n">
+        <v>15654</v>
+      </c>
+      <c r="C45" t="n">
+        <v>154565</v>
+      </c>
+      <c r="D45" t="n">
+        <v>60</v>
+      </c>
+      <c r="E45" t="n">
+        <v>62623</v>
+      </c>
+      <c r="F45" t="n">
+        <v>62625</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>11509</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8379</v>
+      </c>
+      <c r="C46" t="n">
+        <v>154720</v>
+      </c>
+      <c r="D46" t="n">
+        <v>100</v>
+      </c>
+      <c r="E46" t="n">
+        <v>73519</v>
+      </c>
+      <c r="F46" t="n">
+        <v>73520</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>11600</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12042</v>
+      </c>
+      <c r="C47" t="n">
+        <v>154875</v>
+      </c>
+      <c r="D47" t="n">
+        <v>40</v>
+      </c>
+      <c r="E47" t="n">
+        <v>73944</v>
+      </c>
+      <c r="F47" t="n">
+        <v>73943</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>11764</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8596</v>
+      </c>
+      <c r="C48" t="n">
+        <v>139807</v>
+      </c>
+      <c r="D48" t="n">
+        <v>100</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96463</v>
+      </c>
+      <c r="F48" t="n">
+        <v>96465</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>11888</v>
+      </c>
+      <c r="B49" t="n">
+        <v>12357</v>
+      </c>
+      <c r="C49" t="n">
+        <v>154883</v>
+      </c>
+      <c r="D49" t="n">
+        <v>200</v>
+      </c>
+      <c r="E49" t="n">
+        <v>63304</v>
+      </c>
+      <c r="F49" t="n">
+        <v>63303</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>12003</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5026</v>
+      </c>
+      <c r="C50" t="n">
+        <v>154493</v>
+      </c>
+      <c r="D50" t="n">
+        <v>60</v>
+      </c>
+      <c r="E50" t="n">
+        <v>73411</v>
+      </c>
+      <c r="F50" t="n">
+        <v>73410</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>12429</v>
+      </c>
+      <c r="B51" t="n">
+        <v>108780</v>
+      </c>
+      <c r="C51" t="n">
+        <v>133887</v>
+      </c>
+      <c r="D51" t="n">
+        <v>100</v>
+      </c>
+      <c r="E51" t="n">
+        <v>100696</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100697</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>12565</v>
+      </c>
+      <c r="B52" t="n">
+        <v>101344</v>
+      </c>
+      <c r="C52" t="n">
+        <v>133713</v>
+      </c>
+      <c r="D52" t="n">
+        <v>60</v>
+      </c>
+      <c r="E52" t="n">
+        <v>96526</v>
+      </c>
+      <c r="F52" t="n">
+        <v>96518</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>12826</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B53" t="n">
         <v>101556</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C53" t="n">
         <v>154589</v>
       </c>
-      <c r="D2" t="n">
-        <v>60</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D53" t="n">
+        <v>60</v>
+      </c>
+      <c r="E53" t="n">
         <v>62922</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F53" t="n">
         <v>62920</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>13916</v>
+      </c>
+      <c r="B54" t="n">
+        <v>102521</v>
+      </c>
+      <c r="C54" t="n">
+        <v>139786</v>
+      </c>
+      <c r="D54" t="n">
+        <v>60</v>
+      </c>
+      <c r="E54" t="n">
+        <v>96550</v>
+      </c>
+      <c r="F54" t="n">
+        <v>59313</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>14237</v>
+      </c>
+      <c r="B55" t="n">
+        <v>106653</v>
+      </c>
+      <c r="C55" t="n">
+        <v>139623</v>
+      </c>
+      <c r="D55" t="n">
+        <v>100</v>
+      </c>
+      <c r="E55" t="n">
+        <v>91661</v>
+      </c>
+      <c r="F55" t="n">
+        <v>91663</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>14241</v>
+      </c>
+      <c r="B56" t="n">
+        <v>106667</v>
+      </c>
+      <c r="C56" t="n">
+        <v>133705</v>
+      </c>
+      <c r="D56" t="n">
+        <v>60</v>
+      </c>
+      <c r="E56" t="n">
+        <v>96444</v>
+      </c>
+      <c r="F56" t="n">
+        <v>96198</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>14519</v>
+      </c>
+      <c r="B57" t="n">
+        <v>106860</v>
+      </c>
+      <c r="C57" t="n">
+        <v>154738</v>
+      </c>
+      <c r="D57" t="n">
+        <v>150</v>
+      </c>
+      <c r="E57" t="n">
+        <v>73639</v>
+      </c>
+      <c r="F57" t="n">
+        <v>73642</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>15242</v>
+      </c>
+      <c r="B58" t="n">
+        <v>100014</v>
+      </c>
+      <c r="C58" t="n">
+        <v>154418</v>
+      </c>
+      <c r="D58" t="n">
+        <v>100</v>
+      </c>
+      <c r="E58" t="n">
+        <v>62556</v>
+      </c>
+      <c r="F58" t="n">
+        <v>62560</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>15454</v>
+      </c>
+      <c r="B59" t="n">
+        <v>96598</v>
+      </c>
+      <c r="C59" t="n">
+        <v>133718</v>
+      </c>
+      <c r="D59" t="n">
+        <v>150</v>
+      </c>
+      <c r="E59" t="n">
+        <v>96533</v>
+      </c>
+      <c r="F59" t="n">
+        <v>96530</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>16454</v>
+      </c>
+      <c r="B60" t="n">
+        <v>104682</v>
+      </c>
+      <c r="C60" t="n">
+        <v>154891</v>
+      </c>
+      <c r="D60" t="n">
+        <v>100</v>
+      </c>
+      <c r="E60" t="n">
+        <v>63283</v>
+      </c>
+      <c r="F60" t="n">
+        <v>63282</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>16864</v>
+      </c>
+      <c r="B61" t="n">
+        <v>86852</v>
+      </c>
+      <c r="C61" t="n">
+        <v>154413</v>
+      </c>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="n">
+        <v>62609</v>
+      </c>
+      <c r="F61" t="n">
+        <v>62614</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>17213</v>
+      </c>
+      <c r="B62" t="n">
+        <v>76283</v>
+      </c>
+      <c r="C62" t="n">
+        <v>139649</v>
+      </c>
+      <c r="D62" t="n">
+        <v>150</v>
+      </c>
+      <c r="E62" t="n">
+        <v>91723</v>
+      </c>
+      <c r="F62" t="n">
+        <v>91718</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>17328</v>
+      </c>
+      <c r="B63" t="n">
+        <v>79938</v>
+      </c>
+      <c r="C63" t="n">
+        <v>133779</v>
+      </c>
+      <c r="D63" t="n">
+        <v>100</v>
+      </c>
+      <c r="E63" t="n">
+        <v>99226</v>
+      </c>
+      <c r="F63" t="n">
+        <v>99223</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>17630</v>
+      </c>
+      <c r="B64" t="n">
+        <v>80171</v>
+      </c>
+      <c r="C64" t="n">
+        <v>154684</v>
+      </c>
+      <c r="D64" t="n">
+        <v>60</v>
+      </c>
+      <c r="E64" t="n">
+        <v>59339</v>
+      </c>
+      <c r="F64" t="n">
+        <v>59340</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>17793</v>
+      </c>
+      <c r="B65" t="n">
+        <v>76741</v>
+      </c>
+      <c r="C65" t="n">
+        <v>154876</v>
+      </c>
+      <c r="D65" t="n">
+        <v>40</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>17901</v>
+      </c>
+      <c r="B66" t="n">
+        <v>80343</v>
+      </c>
+      <c r="C66" t="n">
+        <v>154767</v>
+      </c>
+      <c r="D66" t="n">
+        <v>100</v>
+      </c>
+      <c r="E66" t="n">
+        <v>63034</v>
+      </c>
+      <c r="F66" t="n">
+        <v>63175</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>17951</v>
+      </c>
+      <c r="B67" t="n">
+        <v>84060</v>
+      </c>
+      <c r="C67" t="n">
+        <v>154508</v>
+      </c>
+      <c r="D67" t="n">
+        <v>40</v>
+      </c>
+      <c r="E67" t="n">
+        <v>62754</v>
+      </c>
+      <c r="F67" t="n">
+        <v>62710</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>18745</v>
+      </c>
+      <c r="B68" t="n">
+        <v>84668</v>
+      </c>
+      <c r="C68" t="n">
+        <v>154663</v>
+      </c>
+      <c r="D68" t="n">
+        <v>100</v>
+      </c>
+      <c r="E68" t="n">
+        <v>62935</v>
+      </c>
+      <c r="F68" t="n">
+        <v>63090</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>18858</v>
+      </c>
+      <c r="B69" t="n">
+        <v>77624</v>
+      </c>
+      <c r="C69" t="n">
+        <v>154503</v>
+      </c>
+      <c r="D69" t="n">
+        <v>100</v>
+      </c>
+      <c r="E69" t="n">
+        <v>62790</v>
+      </c>
+      <c r="F69" t="n">
+        <v>62685</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>18909</v>
+      </c>
+      <c r="B70" t="n">
+        <v>77794</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2017814</v>
+      </c>
+      <c r="D70" t="n">
+        <v>100</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>19634</v>
+      </c>
+      <c r="B71" t="n">
+        <v>74600</v>
+      </c>
+      <c r="C71" t="n">
+        <v>154680</v>
+      </c>
+      <c r="D71" t="n">
+        <v>100</v>
+      </c>
+      <c r="E71" t="n">
+        <v>59465</v>
+      </c>
+      <c r="F71" t="n">
+        <v>59464</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>20050</v>
+      </c>
+      <c r="B72" t="n">
+        <v>78790</v>
+      </c>
+      <c r="C72" t="n">
+        <v>133766</v>
+      </c>
+      <c r="D72" t="n">
+        <v>100</v>
+      </c>
+      <c r="E72" t="n">
+        <v>99312</v>
+      </c>
+      <c r="F72" t="n">
+        <v>99324</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>20341</v>
+      </c>
+      <c r="B73" t="n">
+        <v>82330</v>
+      </c>
+      <c r="C73" t="n">
+        <v>154518</v>
+      </c>
+      <c r="D73" t="n">
+        <v>100</v>
+      </c>
+      <c r="E73" t="n">
+        <v>59429</v>
+      </c>
+      <c r="F73" t="n">
+        <v>59430</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>20364</v>
+      </c>
+      <c r="B74" t="n">
+        <v>82384</v>
+      </c>
+      <c r="C74" t="n">
+        <v>133833</v>
+      </c>
+      <c r="D74" t="n">
+        <v>100</v>
+      </c>
+      <c r="E74" t="n">
+        <v>99243</v>
+      </c>
+      <c r="F74" t="n">
+        <v>99241</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>20470</v>
+      </c>
+      <c r="B75" t="n">
+        <v>86247</v>
+      </c>
+      <c r="C75" t="n">
+        <v>133716</v>
+      </c>
+      <c r="D75" t="n">
+        <v>60</v>
+      </c>
+      <c r="E75" t="n">
+        <v>96528</v>
+      </c>
+      <c r="F75" t="n">
+        <v>96531</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>21431</v>
+      </c>
+      <c r="B76" t="n">
+        <v>27918</v>
+      </c>
+      <c r="C76" t="n">
+        <v>133834</v>
+      </c>
+      <c r="D76" t="n">
+        <v>100</v>
+      </c>
+      <c r="E76" t="n">
+        <v>99176</v>
+      </c>
+      <c r="F76" t="n">
+        <v>99251</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>21928</v>
+      </c>
+      <c r="B77" t="n">
+        <v>20780</v>
+      </c>
+      <c r="C77" t="n">
+        <v>154529</v>
+      </c>
+      <c r="D77" t="n">
+        <v>60</v>
+      </c>
+      <c r="E77" t="n">
+        <v>62695</v>
+      </c>
+      <c r="F77" t="n">
+        <v>62692</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>21990</v>
+      </c>
+      <c r="B78" t="n">
+        <v>24535</v>
+      </c>
+      <c r="C78" t="n">
+        <v>133620</v>
+      </c>
+      <c r="D78" t="n">
+        <v>60</v>
+      </c>
+      <c r="E78" t="n">
+        <v>96193</v>
+      </c>
+      <c r="F78" t="n">
+        <v>96040</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>22106</v>
+      </c>
+      <c r="B79" t="n">
+        <v>32197</v>
+      </c>
+      <c r="C79" t="n">
+        <v>139678</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>96477</v>
+      </c>
+      <c r="F79" t="n">
+        <v>96476</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B80" t="n">
+        <v>32230</v>
+      </c>
+      <c r="C80" t="n">
+        <v>154886</v>
+      </c>
+      <c r="D80" t="n">
+        <v>100</v>
+      </c>
+      <c r="E80" t="n">
+        <v>63327</v>
+      </c>
+      <c r="F80" t="n">
+        <v>63325</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>22860</v>
+      </c>
+      <c r="B81" t="n">
+        <v>29141</v>
+      </c>
+      <c r="C81" t="n">
+        <v>139797</v>
+      </c>
+      <c r="D81" t="n">
+        <v>60</v>
+      </c>
+      <c r="E81" t="n">
+        <v>59260</v>
+      </c>
+      <c r="F81" t="n">
+        <v>59261</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>22883</v>
+      </c>
+      <c r="B82" t="n">
+        <v>29204</v>
+      </c>
+      <c r="C82" t="n">
+        <v>154760</v>
+      </c>
+      <c r="D82" t="n">
+        <v>100</v>
+      </c>
+      <c r="E82" t="n">
+        <v>63172</v>
+      </c>
+      <c r="F82" t="n">
+        <v>63173</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>22887</v>
+      </c>
+      <c r="B83" t="n">
+        <v>29212</v>
+      </c>
+      <c r="C83" t="n">
+        <v>154470</v>
+      </c>
+      <c r="D83" t="n">
+        <v>100</v>
+      </c>
+      <c r="E83" t="n">
+        <v>99413</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1697949</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>23004</v>
+      </c>
+      <c r="B84" t="n">
+        <v>21600</v>
+      </c>
+      <c r="C84" t="n">
+        <v>139656</v>
+      </c>
+      <c r="D84" t="n">
+        <v>60</v>
+      </c>
+      <c r="E84" t="n">
+        <v>59073</v>
+      </c>
+      <c r="F84" t="n">
+        <v>59074</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>23170</v>
+      </c>
+      <c r="B85" t="n">
+        <v>29462</v>
+      </c>
+      <c r="C85" t="n">
+        <v>133753</v>
+      </c>
+      <c r="D85" t="n">
+        <v>100</v>
+      </c>
+      <c r="E85" t="n">
+        <v>96270</v>
+      </c>
+      <c r="F85" t="n">
+        <v>96269</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>23735</v>
+      </c>
+      <c r="B86" t="n">
+        <v>18508</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2012444</v>
+      </c>
+      <c r="D86" t="n">
+        <v>200</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2012362</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2012401</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>23795</v>
+      </c>
+      <c r="B87" t="n">
+        <v>18702</v>
+      </c>
+      <c r="C87" t="n">
+        <v>154444</v>
+      </c>
+      <c r="D87" t="n">
+        <v>100</v>
+      </c>
+      <c r="E87" t="n">
+        <v>59390</v>
+      </c>
+      <c r="F87" t="n">
+        <v>59431</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>24165</v>
+      </c>
+      <c r="B88" t="n">
+        <v>22729</v>
+      </c>
+      <c r="C88" t="n">
+        <v>133610</v>
+      </c>
+      <c r="D88" t="n">
+        <v>150</v>
+      </c>
+      <c r="E88" t="n">
+        <v>95976</v>
+      </c>
+      <c r="F88" t="n">
+        <v>96166</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>24365</v>
+      </c>
+      <c r="B89" t="n">
+        <v>19117</v>
+      </c>
+      <c r="C89" t="n">
+        <v>154433</v>
+      </c>
+      <c r="D89" t="n">
+        <v>100</v>
+      </c>
+      <c r="E89" t="n">
+        <v>62583</v>
+      </c>
+      <c r="F89" t="n">
+        <v>62582</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>24867</v>
+      </c>
+      <c r="B90" t="n">
+        <v>30941</v>
+      </c>
+      <c r="C90" t="n">
+        <v>154415</v>
+      </c>
+      <c r="D90" t="n">
+        <v>40</v>
+      </c>
+      <c r="E90" t="n">
+        <v>62528</v>
+      </c>
+      <c r="F90" t="n">
+        <v>62527</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>26261</v>
+      </c>
+      <c r="B91" t="n">
+        <v>65566</v>
+      </c>
+      <c r="C91" t="n">
+        <v>154479</v>
+      </c>
+      <c r="D91" t="n">
+        <v>40</v>
+      </c>
+      <c r="E91" t="n">
+        <v>73468</v>
+      </c>
+      <c r="F91" t="n">
+        <v>73466</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>26758</v>
+      </c>
+      <c r="B92" t="n">
+        <v>62226</v>
+      </c>
+      <c r="C92" t="n">
+        <v>154473</v>
+      </c>
+      <c r="D92" t="n">
+        <v>100</v>
+      </c>
+      <c r="E92" t="n">
+        <v>73456</v>
+      </c>
+      <c r="F92" t="n">
+        <v>73516</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>26776</v>
+      </c>
+      <c r="B93" t="n">
+        <v>62271</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1988351</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1658570</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1988352</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>27047</v>
+      </c>
+      <c r="B94" t="n">
+        <v>62479</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2022543</v>
+      </c>
+      <c r="D94" t="n">
+        <v>60</v>
+      </c>
+      <c r="E94" t="n">
+        <v>63238</v>
+      </c>
+      <c r="F94" t="n">
+        <v>63296</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>27255</v>
+      </c>
+      <c r="B95" t="n">
+        <v>59192</v>
+      </c>
+      <c r="C95" t="n">
+        <v>140279</v>
+      </c>
+      <c r="D95" t="n">
+        <v>100</v>
+      </c>
+      <c r="E95" t="n">
+        <v>63216</v>
+      </c>
+      <c r="F95" t="n">
+        <v>63218</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>27792</v>
+      </c>
+      <c r="B96" t="n">
+        <v>59529</v>
+      </c>
+      <c r="C96" t="n">
+        <v>133708</v>
+      </c>
+      <c r="D96" t="n">
+        <v>60</v>
+      </c>
+      <c r="E96" t="n">
+        <v>96201</v>
+      </c>
+      <c r="F96" t="n">
+        <v>96202</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>27979</v>
+      </c>
+      <c r="B97" t="n">
+        <v>66974</v>
+      </c>
+      <c r="C97" t="n">
+        <v>154485</v>
+      </c>
+      <c r="D97" t="n">
+        <v>60</v>
+      </c>
+      <c r="E97" t="n">
+        <v>73452</v>
+      </c>
+      <c r="F97" t="n">
+        <v>73451</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>28258</v>
+      </c>
+      <c r="B98" t="n">
+        <v>56205</v>
+      </c>
+      <c r="C98" t="n">
+        <v>139798</v>
+      </c>
+      <c r="D98" t="n">
+        <v>60</v>
+      </c>
+      <c r="E98" t="n">
+        <v>96450</v>
+      </c>
+      <c r="F98" t="n">
+        <v>96449</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>28327</v>
+      </c>
+      <c r="B99" t="n">
+        <v>59964</v>
+      </c>
+      <c r="C99" t="n">
+        <v>154613</v>
+      </c>
+      <c r="D99" t="n">
+        <v>100</v>
+      </c>
+      <c r="E99" t="n">
+        <v>63023</v>
+      </c>
+      <c r="F99" t="n">
+        <v>62783</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>28474</v>
+      </c>
+      <c r="B100" t="n">
+        <v>63700</v>
+      </c>
+      <c r="C100" t="n">
+        <v>154775</v>
+      </c>
+      <c r="D100" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" t="n">
+        <v>63057</v>
+      </c>
+      <c r="F100" t="n">
+        <v>63056</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>28576</v>
+      </c>
+      <c r="B101" t="n">
+        <v>56537</v>
+      </c>
+      <c r="C101" t="n">
+        <v>154482</v>
+      </c>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="n">
+        <v>73472</v>
+      </c>
+      <c r="F101" t="n">
+        <v>73474</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>28660</v>
+      </c>
+      <c r="B102" t="n">
+        <v>60326</v>
+      </c>
+      <c r="C102" t="n">
+        <v>139676</v>
+      </c>
+      <c r="D102" t="n">
+        <v>150</v>
+      </c>
+      <c r="E102" t="n">
+        <v>96516</v>
+      </c>
+      <c r="F102" t="n">
+        <v>96515</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>29062</v>
+      </c>
+      <c r="B103" t="n">
+        <v>67767</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2046550</v>
+      </c>
+      <c r="D103" t="n">
+        <v>100</v>
+      </c>
+      <c r="E103" t="n">
+        <v>96440</v>
+      </c>
+      <c r="F103" t="n">
+        <v>96441</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>29522</v>
+      </c>
+      <c r="B104" t="n">
+        <v>61115</v>
+      </c>
+      <c r="C104" t="n">
+        <v>154468</v>
+      </c>
+      <c r="D104" t="n">
+        <v>60</v>
+      </c>
+      <c r="E104" t="n">
+        <v>59367</v>
+      </c>
+      <c r="F104" t="n">
+        <v>59368</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>29784</v>
+      </c>
+      <c r="B105" t="n">
+        <v>61304</v>
+      </c>
+      <c r="C105" t="n">
+        <v>154465</v>
+      </c>
+      <c r="D105" t="n">
+        <v>100</v>
+      </c>
+      <c r="E105" t="n">
+        <v>59354</v>
+      </c>
+      <c r="F105" t="n">
+        <v>59353</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>30034</v>
+      </c>
+      <c r="B106" t="n">
+        <v>123472</v>
+      </c>
+      <c r="C106" t="n">
+        <v>154884</v>
+      </c>
+      <c r="D106" t="n">
+        <v>150</v>
+      </c>
+      <c r="E106" t="n">
+        <v>63309</v>
+      </c>
+      <c r="F106" t="n">
+        <v>63310</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>30356</v>
+      </c>
+      <c r="B107" t="n">
+        <v>123908</v>
+      </c>
+      <c r="C107" t="n">
+        <v>154628</v>
+      </c>
+      <c r="D107" t="n">
+        <v>150</v>
+      </c>
+      <c r="E107" t="n">
+        <v>63149</v>
+      </c>
+      <c r="F107" t="n">
+        <v>63148</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>31809</v>
+      </c>
+      <c r="B108" t="n">
+        <v>117375</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1697962</v>
+      </c>
+      <c r="D108" t="n">
+        <v>100</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1697964</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1697961</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>32068</v>
+      </c>
+      <c r="B109" t="n">
+        <v>117576</v>
+      </c>
+      <c r="C109" t="n">
+        <v>154749</v>
+      </c>
+      <c r="D109" t="n">
+        <v>100</v>
+      </c>
+      <c r="E109" t="n">
+        <v>63222</v>
+      </c>
+      <c r="F109" t="n">
+        <v>63220</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>32495</v>
+      </c>
+      <c r="B110" t="n">
+        <v>121785</v>
+      </c>
+      <c r="C110" t="n">
+        <v>154497</v>
+      </c>
+      <c r="D110" t="n">
+        <v>60</v>
+      </c>
+      <c r="E110" t="n">
+        <v>100643</v>
+      </c>
+      <c r="F110" t="n">
+        <v>100644</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>32902</v>
+      </c>
+      <c r="B111" t="n">
+        <v>114723</v>
+      </c>
+      <c r="C111" t="n">
+        <v>133821</v>
+      </c>
+      <c r="D111" t="n">
+        <v>40</v>
+      </c>
+      <c r="E111" t="n">
+        <v>99376</v>
+      </c>
+      <c r="F111" t="n">
+        <v>99374</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>33070</v>
+      </c>
+      <c r="B112" t="n">
+        <v>126103</v>
+      </c>
+      <c r="C112" t="n">
+        <v>133731</v>
+      </c>
+      <c r="D112" t="n">
+        <v>100</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1979335</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1979334</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>33112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>126236</v>
+      </c>
+      <c r="C113" t="n">
+        <v>133824</v>
+      </c>
+      <c r="D113" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" t="n">
+        <v>99366</v>
+      </c>
+      <c r="F113" t="n">
+        <v>99389</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>33162</v>
+      </c>
+      <c r="B114" t="n">
+        <v>114850</v>
+      </c>
+      <c r="C114" t="n">
+        <v>133879</v>
+      </c>
+      <c r="D114" t="n">
+        <v>60</v>
+      </c>
+      <c r="E114" t="n">
+        <v>100805</v>
+      </c>
+      <c r="F114" t="n">
+        <v>100807</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>33298</v>
+      </c>
+      <c r="B115" t="n">
+        <v>122405</v>
+      </c>
+      <c r="C115" t="n">
+        <v>154486</v>
+      </c>
+      <c r="D115" t="n">
+        <v>100</v>
+      </c>
+      <c r="E115" t="n">
+        <v>73433</v>
+      </c>
+      <c r="F115" t="n">
+        <v>73434</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>33460</v>
+      </c>
+      <c r="B116" t="n">
+        <v>115190</v>
+      </c>
+      <c r="C116" t="n">
+        <v>133692</v>
+      </c>
+      <c r="D116" t="n">
+        <v>60</v>
+      </c>
+      <c r="E116" t="n">
+        <v>96130</v>
+      </c>
+      <c r="F116" t="n">
+        <v>96124</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>33505</v>
+      </c>
+      <c r="B117" t="n">
+        <v>118894</v>
+      </c>
+      <c r="C117" t="n">
+        <v>154513</v>
+      </c>
+      <c r="D117" t="n">
+        <v>100</v>
+      </c>
+      <c r="E117" t="n">
+        <v>59526</v>
+      </c>
+      <c r="F117" t="n">
+        <v>59528</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>33739</v>
+      </c>
+      <c r="B118" t="n">
+        <v>118979</v>
+      </c>
+      <c r="C118" t="n">
+        <v>154432</v>
+      </c>
+      <c r="D118" t="n">
+        <v>100</v>
+      </c>
+      <c r="E118" t="n">
+        <v>62552</v>
+      </c>
+      <c r="F118" t="n">
+        <v>62551</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>34784</v>
+      </c>
+      <c r="B119" t="n">
+        <v>35444</v>
+      </c>
+      <c r="C119" t="n">
+        <v>155056</v>
+      </c>
+      <c r="D119" t="n">
+        <v>100</v>
+      </c>
+      <c r="E119" t="n">
+        <v>63335</v>
+      </c>
+      <c r="F119" t="n">
+        <v>63334</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>35538</v>
+      </c>
+      <c r="B120" t="n">
+        <v>43406</v>
+      </c>
+      <c r="C120" t="n">
+        <v>133742</v>
+      </c>
+      <c r="D120" t="n">
+        <v>60</v>
+      </c>
+      <c r="E120" t="n">
+        <v>96238</v>
+      </c>
+      <c r="F120" t="n">
+        <v>96308</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>35829</v>
+      </c>
+      <c r="B121" t="n">
+        <v>47684</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1979337</v>
+      </c>
+      <c r="D121" t="n">
+        <v>60</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1979326</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1979331</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>36782</v>
+      </c>
+      <c r="B122" t="n">
+        <v>37148</v>
+      </c>
+      <c r="C122" t="n">
+        <v>154566</v>
+      </c>
+      <c r="D122" t="n">
+        <v>63</v>
+      </c>
+      <c r="E122" t="n">
+        <v>62597</v>
+      </c>
+      <c r="F122" t="n">
+        <v>62598</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>37222</v>
+      </c>
+      <c r="B123" t="n">
+        <v>44735</v>
+      </c>
+      <c r="C123" t="n">
+        <v>154669</v>
+      </c>
+      <c r="D123" t="n">
+        <v>60</v>
+      </c>
+      <c r="E123" t="n">
+        <v>59455</v>
+      </c>
+      <c r="F123" t="n">
+        <v>59453</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>37298</v>
+      </c>
+      <c r="B124" t="n">
+        <v>33974</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2040448</v>
+      </c>
+      <c r="D124" t="n">
+        <v>200</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2040447</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2040450</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>37416</v>
+      </c>
+      <c r="B125" t="n">
+        <v>41207</v>
+      </c>
+      <c r="C125" t="n">
+        <v>139829</v>
+      </c>
+      <c r="D125" t="n">
+        <v>100</v>
+      </c>
+      <c r="E125" t="n">
+        <v>59218</v>
+      </c>
+      <c r="F125" t="n">
+        <v>59220</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>37592</v>
+      </c>
+      <c r="B126" t="n">
+        <v>37776</v>
+      </c>
+      <c r="C126" t="n">
+        <v>133831</v>
+      </c>
+      <c r="D126" t="n">
+        <v>300</v>
+      </c>
+      <c r="E126" t="n">
+        <v>99360</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1660651</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>37636</v>
+      </c>
+      <c r="B127" t="n">
+        <v>37920</v>
+      </c>
+      <c r="C127" t="n">
+        <v>133904</v>
+      </c>
+      <c r="D127" t="n">
+        <v>60</v>
+      </c>
+      <c r="E127" t="n">
+        <v>100718</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100722</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>37910</v>
+      </c>
+      <c r="B128" t="n">
+        <v>38121</v>
+      </c>
+      <c r="C128" t="n">
+        <v>155053</v>
+      </c>
+      <c r="D128" t="n">
+        <v>60</v>
+      </c>
+      <c r="E128" t="n">
+        <v>63337</v>
+      </c>
+      <c r="F128" t="n">
+        <v>63453</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>37970</v>
+      </c>
+      <c r="B129" t="n">
+        <v>41586</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2015780</v>
+      </c>
+      <c r="D129" t="n">
+        <v>100</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2015723</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2015722</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>38311</v>
+      </c>
+      <c r="B130" t="n">
+        <v>45605</v>
+      </c>
+      <c r="C130" t="n">
+        <v>133710</v>
+      </c>
+      <c r="D130" t="n">
+        <v>60</v>
+      </c>
+      <c r="E130" t="n">
+        <v>95992</v>
+      </c>
+      <c r="F130" t="n">
+        <v>95991</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>38408</v>
+      </c>
+      <c r="B131" t="n">
+        <v>34872</v>
+      </c>
+      <c r="C131" t="n">
+        <v>154439</v>
+      </c>
+      <c r="D131" t="n">
+        <v>40</v>
+      </c>
+      <c r="E131" t="n">
+        <v>99448</v>
+      </c>
+      <c r="F131" t="n">
+        <v>99454</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>38409</v>
+      </c>
+      <c r="B132" t="n">
+        <v>34873</v>
+      </c>
+      <c r="C132" t="n">
+        <v>133815</v>
+      </c>
+      <c r="D132" t="n">
+        <v>60</v>
+      </c>
+      <c r="E132" t="n">
+        <v>99465</v>
+      </c>
+      <c r="F132" t="n">
+        <v>99464</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B133" t="n">
+        <v>131320</v>
+      </c>
+      <c r="C133" t="n">
+        <v>139783</v>
+      </c>
+      <c r="D133" t="n">
+        <v>100</v>
+      </c>
+      <c r="E133" t="n">
+        <v>59311</v>
+      </c>
+      <c r="F133" t="n">
+        <v>59307</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>39208</v>
+      </c>
+      <c r="B134" t="n">
+        <v>131554</v>
+      </c>
+      <c r="C134" t="n">
+        <v>133892</v>
+      </c>
+      <c r="D134" t="n">
+        <v>100</v>
+      </c>
+      <c r="E134" t="n">
+        <v>100711</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100710</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>39281</v>
+      </c>
+      <c r="B135" t="n">
+        <v>135294</v>
+      </c>
+      <c r="C135" t="n">
+        <v>139671</v>
+      </c>
+      <c r="D135" t="n">
+        <v>150</v>
+      </c>
+      <c r="E135" t="n">
+        <v>96486</v>
+      </c>
+      <c r="F135" t="n">
+        <v>96485</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>39309</v>
+      </c>
+      <c r="B136" t="n">
+        <v>135370</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1979773</v>
+      </c>
+      <c r="D136" t="n">
+        <v>100</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1979770</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1979774</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>39571</v>
+      </c>
+      <c r="B137" t="n">
+        <v>135804</v>
+      </c>
+      <c r="C137" t="n">
+        <v>154551</v>
+      </c>
+      <c r="D137" t="n">
+        <v>60</v>
+      </c>
+      <c r="E137" t="n">
+        <v>62836</v>
+      </c>
+      <c r="F137" t="n">
+        <v>62840</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>40071</v>
+      </c>
+      <c r="B138" t="n">
+        <v>129101</v>
+      </c>
+      <c r="C138" t="n">
+        <v>154651</v>
+      </c>
+      <c r="D138" t="n">
+        <v>100</v>
+      </c>
+      <c r="E138" t="n">
+        <v>63051</v>
+      </c>
+      <c r="F138" t="n">
+        <v>63030</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>40369</v>
+      </c>
+      <c r="B139" t="n">
+        <v>133122</v>
+      </c>
+      <c r="C139" t="n">
+        <v>133343</v>
+      </c>
+      <c r="D139" t="n">
+        <v>150</v>
+      </c>
+      <c r="E139" t="n">
+        <v>91683</v>
+      </c>
+      <c r="F139" t="n">
+        <v>91682</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>40902</v>
+      </c>
+      <c r="B140" t="n">
+        <v>130071</v>
+      </c>
+      <c r="C140" t="n">
+        <v>140278</v>
+      </c>
+      <c r="D140" t="n">
+        <v>60</v>
+      </c>
+      <c r="E140" t="n">
+        <v>63214</v>
+      </c>
+      <c r="F140" t="n">
+        <v>63215</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>40923</v>
+      </c>
+      <c r="B141" t="n">
+        <v>130139</v>
+      </c>
+      <c r="C141" t="n">
+        <v>133751</v>
+      </c>
+      <c r="D141" t="n">
+        <v>60</v>
+      </c>
+      <c r="E141" t="n">
+        <v>96234</v>
+      </c>
+      <c r="F141" t="n">
+        <v>96232</v>
       </c>
     </row>
   </sheetData>
